--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H2">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J2">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>28.56351448810102</v>
+        <v>204.7135596407782</v>
       </c>
       <c r="R2">
-        <v>28.56351448810102</v>
+        <v>1842.422036767004</v>
       </c>
       <c r="S2">
-        <v>0.009553101816455025</v>
+        <v>0.02355512409557107</v>
       </c>
       <c r="T2">
-        <v>0.009553101816455025</v>
+        <v>0.02355512409557107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H3">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J3">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>8.208265852411262</v>
+        <v>16.73100098026178</v>
       </c>
       <c r="R3">
-        <v>8.208265852411262</v>
+        <v>150.579008822356</v>
       </c>
       <c r="S3">
-        <v>0.002745264398653801</v>
+        <v>0.001925132878470469</v>
       </c>
       <c r="T3">
-        <v>0.002745264398653801</v>
+        <v>0.001925132878470469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.344504292695358</v>
+        <v>0.6873773333333334</v>
       </c>
       <c r="H4">
-        <v>0.344504292695358</v>
+        <v>2.062132</v>
       </c>
       <c r="I4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="J4">
-        <v>0.01389083713375065</v>
+        <v>0.02660947569874856</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>4.761444715072072</v>
+        <v>9.813847034296002</v>
       </c>
       <c r="R4">
-        <v>4.761444715072072</v>
+        <v>88.324623308664</v>
       </c>
       <c r="S4">
-        <v>0.001592470918641821</v>
+        <v>0.001129218724707022</v>
       </c>
       <c r="T4">
-        <v>0.001592470918641821</v>
+        <v>0.001129218724707022</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H5">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J5">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>454.1614778042338</v>
+        <v>1761.29295230516</v>
       </c>
       <c r="R5">
-        <v>454.1614778042338</v>
+        <v>15851.63657074644</v>
       </c>
       <c r="S5">
-        <v>0.1518948531485129</v>
+        <v>0.2026610945215502</v>
       </c>
       <c r="T5">
-        <v>0.1518948531485129</v>
+        <v>0.2026610945215503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H6">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J6">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>130.511886108906</v>
+        <v>143.9484231687202</v>
       </c>
       <c r="R6">
-        <v>130.511886108906</v>
+        <v>1295.535808518482</v>
       </c>
       <c r="S6">
-        <v>0.04364985747028259</v>
+        <v>0.01656325539476166</v>
       </c>
       <c r="T6">
-        <v>0.04364985747028259</v>
+        <v>0.01656325539476166</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.47763752060708</v>
+        <v>5.913984666666667</v>
       </c>
       <c r="H7">
-        <v>5.47763752060708</v>
+        <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="J7">
-        <v>0.2208650872857467</v>
+        <v>0.2289398029860915</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>75.7072372582558</v>
+        <v>84.43534295841201</v>
       </c>
       <c r="R7">
-        <v>75.7072372582558</v>
+        <v>759.918086625708</v>
       </c>
       <c r="S7">
-        <v>0.02532037666695118</v>
+        <v>0.009715453069779547</v>
       </c>
       <c r="T7">
-        <v>0.02532037666695118</v>
+        <v>0.009715453069779551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J8">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>1573.559608345598</v>
+        <v>5727.251407089495</v>
       </c>
       <c r="R8">
-        <v>1573.559608345598</v>
+        <v>51545.26266380545</v>
       </c>
       <c r="S8">
-        <v>0.5262789058765431</v>
+        <v>0.6589994226921461</v>
       </c>
       <c r="T8">
-        <v>0.5262789058765431</v>
+        <v>0.6589994226921461</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J9">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>452.1921000056711</v>
+        <v>468.0815920272457</v>
       </c>
       <c r="R9">
-        <v>452.1921000056711</v>
+        <v>4212.734328245211</v>
       </c>
       <c r="S9">
-        <v>0.1512361923722778</v>
+        <v>0.05385925586171066</v>
       </c>
       <c r="T9">
-        <v>0.1512361923722778</v>
+        <v>0.05385925586171068</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.978688358287</v>
+        <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>18.978688358287</v>
+        <v>57.692067</v>
       </c>
       <c r="I10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="J10">
-        <v>0.7652440755805027</v>
+        <v>0.7444507213151601</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>262.3072550868773</v>
+        <v>274.561046834226</v>
       </c>
       <c r="R10">
-        <v>262.3072550868773</v>
+        <v>2471.049421508034</v>
       </c>
       <c r="S10">
-        <v>0.08772897733168178</v>
+        <v>0.03159204276130337</v>
       </c>
       <c r="T10">
-        <v>0.08772897733168178</v>
+        <v>0.03159204276130338</v>
       </c>
     </row>
   </sheetData>
